--- a/Data/Processed/Angiosperms/missing_powo_ipni/Picramniaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Picramniaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Bot. Univ. São Paulo 12: 167, figs. 262-275. 1990 </t>
+          <t>Bol. Bot. Univ. São Paulo 12: 167, figs. 262-275. 1990</t>
         </is>
       </c>
       <c r="J20" t="b">
